--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.852535666666667</v>
+        <v>2.208740666666666</v>
       </c>
       <c r="H2">
-        <v>5.557607</v>
+        <v>6.626221999999999</v>
       </c>
       <c r="I2">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="J2">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N2">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O2">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P2">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q2">
-        <v>0.1537586077976666</v>
+        <v>0.1461821879123333</v>
       </c>
       <c r="R2">
-        <v>0.9225516467859999</v>
+        <v>0.8770931274739998</v>
       </c>
       <c r="S2">
-        <v>8.339761320091847E-05</v>
+        <v>9.816946833188086E-05</v>
       </c>
       <c r="T2">
-        <v>5.560495976790198E-05</v>
+        <v>6.545547756610595E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.852535666666667</v>
+        <v>2.208740666666666</v>
       </c>
       <c r="H3">
-        <v>5.557607</v>
+        <v>6.626221999999999</v>
       </c>
       <c r="I3">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="J3">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.101555</v>
       </c>
       <c r="O3">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q3">
-        <v>0.06271141987611112</v>
+        <v>0.07476955280111111</v>
       </c>
       <c r="R3">
-        <v>0.564402778885</v>
+        <v>0.67292597521</v>
       </c>
       <c r="S3">
-        <v>3.401424357971895E-05</v>
+        <v>5.021191261892648E-05</v>
       </c>
       <c r="T3">
-        <v>3.401825135983136E-05</v>
+        <v>5.021894448182622E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.852535666666667</v>
+        <v>2.208740666666666</v>
       </c>
       <c r="H4">
-        <v>5.557607</v>
+        <v>6.626221999999999</v>
       </c>
       <c r="I4">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="J4">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N4">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O4">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P4">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q4">
-        <v>252.1282214395841</v>
+        <v>712.0567257677048</v>
       </c>
       <c r="R4">
-        <v>2269.153992956257</v>
+        <v>6408.510531909345</v>
       </c>
       <c r="S4">
-        <v>0.1367526162588801</v>
+        <v>0.47818568861944</v>
       </c>
       <c r="T4">
-        <v>0.136768729344402</v>
+        <v>0.4782526555208705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.852535666666667</v>
+        <v>2.208740666666666</v>
       </c>
       <c r="H5">
-        <v>5.557607</v>
+        <v>6.626221999999999</v>
       </c>
       <c r="I5">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="J5">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N5">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O5">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P5">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q5">
-        <v>0.05199511855633333</v>
+        <v>0.2248453823853333</v>
       </c>
       <c r="R5">
-        <v>0.311970711338</v>
+        <v>1.349072294312</v>
       </c>
       <c r="S5">
-        <v>2.820179531934336E-05</v>
+        <v>0.0001509961778577562</v>
       </c>
       <c r="T5">
-        <v>1.880341215925138E-05</v>
+        <v>0.0001006782159492087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.852535666666667</v>
+        <v>2.208740666666666</v>
       </c>
       <c r="H6">
-        <v>5.557607</v>
+        <v>6.626221999999999</v>
       </c>
       <c r="I6">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="J6">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N6">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O6">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P6">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q6">
-        <v>0.5988469745353333</v>
+        <v>58.52657774925578</v>
       </c>
       <c r="R6">
-        <v>5.389622770818</v>
+        <v>526.739199743302</v>
       </c>
       <c r="S6">
-        <v>0.0003248104874528911</v>
+        <v>0.03930385160450989</v>
       </c>
       <c r="T6">
-        <v>0.0003248487587438245</v>
+        <v>0.03930935586199581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.852535666666667</v>
+        <v>2.208740666666666</v>
       </c>
       <c r="H7">
-        <v>5.557607</v>
+        <v>6.626221999999999</v>
       </c>
       <c r="I7">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="J7">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N7">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O7">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P7">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q7">
-        <v>329.1540010109975</v>
+        <v>112.2177819035387</v>
       </c>
       <c r="R7">
-        <v>2962.386009098978</v>
+        <v>1009.960037131848</v>
       </c>
       <c r="S7">
-        <v>0.1785308702584811</v>
+        <v>0.07536048094628299</v>
       </c>
       <c r="T7">
-        <v>0.1785519059304812</v>
+        <v>0.07537103470817798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>4.014487999999999</v>
+        <v>0.1917523333333333</v>
       </c>
       <c r="H8">
-        <v>12.043464</v>
+        <v>0.575257</v>
       </c>
       <c r="I8">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="J8">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N8">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O8">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P8">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q8">
-        <v>0.3331984895119999</v>
+        <v>0.01269084055316667</v>
       </c>
       <c r="R8">
-        <v>1.999190937072</v>
+        <v>0.07614504331899999</v>
       </c>
       <c r="S8">
-        <v>0.000180724573052968</v>
+        <v>8.522605165385764E-06</v>
       </c>
       <c r="T8">
-        <v>0.0001204972448008964</v>
+        <v>5.682532468463238E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>4.014487999999999</v>
+        <v>0.1917523333333333</v>
       </c>
       <c r="H9">
-        <v>12.043464</v>
+        <v>0.575257</v>
       </c>
       <c r="I9">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="J9">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.101555</v>
       </c>
       <c r="O9">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P9">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q9">
-        <v>0.1358971096133333</v>
+        <v>0.006491136070555556</v>
       </c>
       <c r="R9">
-        <v>1.22307398652</v>
+        <v>0.058420224635</v>
       </c>
       <c r="S9">
-        <v>7.370965921836073E-05</v>
+        <v>4.359158841557948E-06</v>
       </c>
       <c r="T9">
-        <v>7.371834417134569E-05</v>
+        <v>4.359769314366755E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>4.014487999999999</v>
+        <v>0.1917523333333333</v>
       </c>
       <c r="H10">
-        <v>12.043464</v>
+        <v>0.575257</v>
       </c>
       <c r="I10">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="J10">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N10">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O10">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P10">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q10">
-        <v>546.3677367420293</v>
+        <v>61.81736982174045</v>
       </c>
       <c r="R10">
-        <v>4917.309630678264</v>
+        <v>556.356328395664</v>
       </c>
       <c r="S10">
-        <v>0.2963461091832576</v>
+        <v>0.04151380148116879</v>
       </c>
       <c r="T10">
-        <v>0.2963810266154209</v>
+        <v>0.04151961522825064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>4.014487999999999</v>
+        <v>0.1917523333333333</v>
       </c>
       <c r="H11">
-        <v>12.043464</v>
+        <v>0.575257</v>
       </c>
       <c r="I11">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="J11">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N11">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O11">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P11">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q11">
-        <v>0.112674634696</v>
+        <v>0.01952000402866667</v>
       </c>
       <c r="R11">
-        <v>0.676047808176</v>
+        <v>0.117120024172</v>
       </c>
       <c r="S11">
-        <v>6.111394826296284E-05</v>
+        <v>1.310876820696911E-05</v>
       </c>
       <c r="T11">
-        <v>4.074743273806625E-05</v>
+        <v>8.740402671732693E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>4.014487999999999</v>
+        <v>0.1917523333333333</v>
       </c>
       <c r="H12">
-        <v>12.043464</v>
+        <v>0.575257</v>
       </c>
       <c r="I12">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="J12">
-        <v>0.684246089343086</v>
+        <v>0.05149440264221032</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N12">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O12">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P12">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q12">
-        <v>1.297715361904</v>
+        <v>5.08099842358189</v>
       </c>
       <c r="R12">
-        <v>11.679438257136</v>
+        <v>45.72898581223701</v>
       </c>
       <c r="S12">
-        <v>0.0007038719025043232</v>
+        <v>0.003412172994272686</v>
       </c>
       <c r="T12">
-        <v>0.0007039548372844526</v>
+        <v>0.003412650847663136</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1917523333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.575257</v>
+      </c>
+      <c r="I13">
+        <v>0.05149440264221032</v>
+      </c>
+      <c r="J13">
+        <v>0.05149440264221032</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>50.806228</v>
+      </c>
+      <c r="N13">
+        <v>152.418684</v>
+      </c>
+      <c r="O13">
+        <v>0.1270514327549857</v>
+      </c>
+      <c r="P13">
+        <v>0.1270692255099267</v>
+      </c>
+      <c r="Q13">
+        <v>9.742212766865334</v>
+      </c>
+      <c r="R13">
+        <v>87.67991490178801</v>
+      </c>
+      <c r="S13">
+        <v>0.006542437634554941</v>
+      </c>
+      <c r="T13">
+        <v>0.006543353861841988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.323258</v>
+      </c>
+      <c r="H14">
+        <v>3.969774</v>
+      </c>
+      <c r="I14">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="J14">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.06618349999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.132367</v>
+      </c>
+      <c r="O14">
+        <v>0.0001655054671592544</v>
+      </c>
+      <c r="P14">
+        <v>0.0001103524301067477</v>
+      </c>
+      <c r="Q14">
+        <v>0.08757784584299999</v>
+      </c>
+      <c r="R14">
+        <v>0.5254670750579999</v>
+      </c>
+      <c r="S14">
+        <v>5.881339366198779E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.921442007217849E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.323258</v>
+      </c>
+      <c r="H15">
+        <v>3.969774</v>
+      </c>
+      <c r="I15">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="J15">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.101555</v>
+      </c>
+      <c r="O15">
+        <v>8.465306165110682E-05</v>
+      </c>
+      <c r="P15">
+        <v>8.466491678054775E-05</v>
+      </c>
+      <c r="Q15">
+        <v>0.04479448873000001</v>
+      </c>
+      <c r="R15">
+        <v>0.40315039857</v>
+      </c>
+      <c r="S15">
+        <v>3.008199019062239E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.008620298435477E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.323258</v>
+      </c>
+      <c r="H16">
+        <v>3.969774</v>
+      </c>
+      <c r="I16">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="J16">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>322.3813173333334</v>
+      </c>
+      <c r="N16">
+        <v>967.1439520000001</v>
+      </c>
+      <c r="O16">
+        <v>0.8061808536669893</v>
+      </c>
+      <c r="P16">
+        <v>0.8062937542306147</v>
+      </c>
+      <c r="Q16">
+        <v>426.593657211872</v>
+      </c>
+      <c r="R16">
+        <v>3839.342914906849</v>
+      </c>
+      <c r="S16">
+        <v>0.2864813635663805</v>
+      </c>
+      <c r="T16">
+        <v>0.2865214834814935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.323258</v>
+      </c>
+      <c r="H17">
+        <v>3.969774</v>
+      </c>
+      <c r="I17">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="J17">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.101798</v>
+      </c>
+      <c r="N17">
+        <v>0.203596</v>
+      </c>
+      <c r="O17">
+        <v>0.0002545668564805093</v>
+      </c>
+      <c r="P17">
+        <v>0.0001697350046462744</v>
+      </c>
+      <c r="Q17">
+        <v>0.134705017884</v>
+      </c>
+      <c r="R17">
+        <v>0.808230107304</v>
+      </c>
+      <c r="S17">
+        <v>9.04619104157839E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.0316386025333E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.014487999999999</v>
-      </c>
-      <c r="H13">
-        <v>12.043464</v>
-      </c>
-      <c r="I13">
-        <v>0.684246089343086</v>
-      </c>
-      <c r="J13">
-        <v>0.684246089343086</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>177.6775513333333</v>
-      </c>
-      <c r="N13">
-        <v>533.032654</v>
-      </c>
-      <c r="O13">
-        <v>0.5654114303352707</v>
-      </c>
-      <c r="P13">
-        <v>0.5654780507991516</v>
-      </c>
-      <c r="Q13">
-        <v>713.2843976970505</v>
-      </c>
-      <c r="R13">
-        <v>6419.559579273455</v>
-      </c>
-      <c r="S13">
-        <v>0.3868805600767897</v>
-      </c>
-      <c r="T13">
-        <v>0.3869261448686704</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.323258</v>
+      </c>
+      <c r="H18">
+        <v>3.969774</v>
+      </c>
+      <c r="I18">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="J18">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>26.49771366666667</v>
+      </c>
+      <c r="N18">
+        <v>79.49314100000001</v>
+      </c>
+      <c r="O18">
+        <v>0.06626298819273425</v>
+      </c>
+      <c r="P18">
+        <v>0.06627226790792524</v>
+      </c>
+      <c r="Q18">
+        <v>35.063311591126</v>
+      </c>
+      <c r="R18">
+        <v>315.569804320134</v>
+      </c>
+      <c r="S18">
+        <v>0.02354696359395168</v>
+      </c>
+      <c r="T18">
+        <v>0.02355026119826631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.323258</v>
+      </c>
+      <c r="H19">
+        <v>3.969774</v>
+      </c>
+      <c r="I19">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="J19">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.806228</v>
+      </c>
+      <c r="N19">
+        <v>152.418684</v>
+      </c>
+      <c r="O19">
+        <v>0.1270514327549857</v>
+      </c>
+      <c r="P19">
+        <v>0.1270692255099267</v>
+      </c>
+      <c r="Q19">
+        <v>67.22974765082401</v>
+      </c>
+      <c r="R19">
+        <v>605.0677288574161</v>
+      </c>
+      <c r="S19">
+        <v>0.04514851417414775</v>
+      </c>
+      <c r="T19">
+        <v>0.04515483693990672</v>
       </c>
     </row>
   </sheetData>
